--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\Unity\DroneFrontier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27F277-BA44-4868-8A02-7FB76E753CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE77E3-2A16-4E4C-B2C2-B1310591AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="852" yWindow="-108" windowWidth="29976" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,6 +1620,131 @@
         <a:xfrm>
           <a:off x="10799635" y="1135380"/>
           <a:ext cx="0" cy="2308860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>339469</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959EFDD3-E933-B7EA-3B8F-0183C4C706B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854440" y="4366260"/>
+          <a:ext cx="1543429" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JammingStatus</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238315</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238315</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C5844D-4C97-5F72-3D70-29B4832C0703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="276" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9626155" y="2186940"/>
+          <a:ext cx="0" cy="2179320"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1914,7 +2039,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\Unity\DroneFrontier\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDE77E3-2A16-4E4C-B2C2-B1310591AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC21ACE-30F7-4BD5-B9A0-5BAA58EC2091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="-108" windowWidth="29976" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="-108" windowWidth="29964" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2046,6 +2041,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>